--- a/biology/Médecine/1819_en_santé_et_médecine/1819_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1819_en_santé_et_médecine/1819_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1819_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1819_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1819 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1819_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1819_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16 juillet : en France, circulaire du Ministre de l'intérieur sur l'amélioration du sort des aliénés[1].
-24 juillet : Joseph Récamier réalise la première hystérectomie totale par voie vaginale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16 juillet : en France, circulaire du Ministre de l'intérieur sur l'amélioration du sort des aliénés.
+24 juillet : Joseph Récamier réalise la première hystérectomie totale par voie vaginale.
 Date à préciser :
 Fondation de l'Hôpital général de Montréal.
 Clarke Abel devient membre de la Royal Society.</t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1819_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1819_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Laennec fait paraître son traité  De l'auscultation médiate, publication officielle de l'invention du stéthoscope[3],[4].
-Pierre Trannoy publie un Traité élémentaire des maladies épidémiques ou populaires à l'usage des officiers de santé[5].
-C.F. Vandeburgh : The mariner’s medical guide[6],[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Laennec fait paraître son traité  De l'auscultation médiate, publication officielle de l'invention du stéthoscope,.
+Pierre Trannoy publie un Traité élémentaire des maladies épidémiques ou populaires à l'usage des officiers de santé.
+C.F. Vandeburgh : The mariner’s medical guide,.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1819_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1819_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>17 mai : Barnabas Wood (mort en 1875), dentiste et inventeur américain.
-9 août : William Morton (mort en 1868), dentiste américain, auteur en 1846 de la première extraction dentaire sous anesthésie par l'éther[8],[9].
+9 août : William Morton (mort en 1868), dentiste américain, auteur en 1846 de la première extraction dentaire sous anesthésie par l'éther,.
 18 novembre : Pierre Coullery (mort en 1903), médecin et homme politique suisse.</t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1819_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1819_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15 mai : Pierre Rubini (né en 1760), médecin italien[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15 mai : Pierre Rubini (né en 1760), médecin italien.
 14 août : Erik Acharius (né en 1757), botaniste et médecin suédois.</t>
         </is>
       </c>
